--- a/Backend/Model Metrics/classification_report_rfc_vent.xlsx
+++ b/Backend/Model Metrics/classification_report_rfc_vent.xlsx
@@ -462,13 +462,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.8992248062015504</v>
+        <v>0.8976377952755905</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8992248062015504</v>
+        <v>0.8837209302325582</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8992248062015503</v>
+        <v>0.8906249999999999</v>
       </c>
       <c r="E2" t="n">
         <v>129</v>
@@ -481,13 +481,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.8879310344827587</v>
+        <v>0.8728813559322034</v>
       </c>
       <c r="C3" t="n">
         <v>0.8879310344827587</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8879310344827587</v>
+        <v>0.8803418803418803</v>
       </c>
       <c r="E3" t="n">
         <v>116</v>
@@ -500,16 +500,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.8938775510204081</v>
+        <v>0.8857142857142857</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8938775510204081</v>
+        <v>0.8857142857142857</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8938775510204081</v>
+        <v>0.8857142857142857</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8938775510204081</v>
+        <v>0.8857142857142857</v>
       </c>
     </row>
     <row r="5">
@@ -519,13 +519,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.8935779203421546</v>
+        <v>0.885259575603897</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8935779203421546</v>
+        <v>0.8858259823576584</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8935779203421546</v>
+        <v>0.8854834401709402</v>
       </c>
       <c r="E5" t="n">
         <v>245</v>
@@ -538,13 +538,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.8938775510204081</v>
+        <v>0.8859163790966806</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8938775510204081</v>
+        <v>0.8857142857142857</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8938775510204081</v>
+        <v>0.8857562576312575</v>
       </c>
       <c r="E6" t="n">
         <v>245</v>
